--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_16_21.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_16_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>778438.8641049098</v>
+        <v>775737.6474534526</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673425</v>
       </c>
     </row>
     <row r="9">
@@ -659,16 +659,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
         <v>263.7138800015061</v>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>219.4450108596165</v>
-      </c>
       <c r="F2" t="n">
-        <v>263.7138800015061</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>12.83417464571001</v>
@@ -707,16 +707,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>263.7138800015061</v>
+        <v>72.36698404190653</v>
       </c>
     </row>
     <row r="3">
@@ -738,25 +738,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>16.66197659284158</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9218040015056</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -795,13 +795,13 @@
         <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>181.2411226522967</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -817,16 +817,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>25.17168621347066</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.8836670385466</v>
@@ -835,10 +835,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888209</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,22 +865,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>263.7138800015061</v>
+        <v>77.75392192072599</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>316.5565966897789</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>112.8847854740915</v>
+        <v>383.6877278154317</v>
       </c>
       <c r="G5" t="n">
         <v>12.41899097776992</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>99.30025118863668</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>143.3066953660374</v>
+        <v>143.3066953660375</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1149531848473</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>383.6877278154328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,28 +972,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>9.229513520900179</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>95.77682125737056</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.8005767399402</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>36.2734647695172</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>4.360182258713763</v>
       </c>
       <c r="S6" t="n">
         <v>143.0237294698458</v>
       </c>
       <c r="T6" t="n">
-        <v>193.9455960238325</v>
+        <v>193.9455960238326</v>
       </c>
       <c r="U6" t="n">
         <v>225.8398728426018</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1054,25 +1054,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>87.60336766488736</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>135.3417802198312</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>116.5499160015377</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>119.1307056315184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>201.4735595059546</v>
       </c>
       <c r="T7" t="n">
         <v>222.4186055422208</v>
@@ -1111,16 +1111,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,19 +1133,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>175.3865504857919</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>117.523540462315</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1184,16 +1184,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>108.5617173417019</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
@@ -1348,13 +1348,13 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>245.5761046894317</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>307.6000736915425</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>127.608523973726</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>289.9775033393747</v>
       </c>
       <c r="I11" t="n">
-        <v>24.14662204184546</v>
+        <v>24.14662204184532</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>98.88510599615206</v>
+        <v>98.88510599615198</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>201.9388203544491</v>
       </c>
       <c r="U11" t="n">
         <v>250.959002459687</v>
@@ -1464,10 +1464,10 @@
         <v>134.757564313352</v>
       </c>
       <c r="H12" t="n">
-        <v>87.2605838181255</v>
+        <v>87.26058381812547</v>
       </c>
       <c r="I12" t="n">
-        <v>10.48847705530785</v>
+        <v>10.48847705530778</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>123.6502311075613</v>
+        <v>123.6502311075612</v>
       </c>
       <c r="T12" t="n">
         <v>189.7415240061373</v>
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8230033569236</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.9518949665179</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>90.25352389927372</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>79.81330679905227</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>186.2346889920368</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>218.682419239904</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2007761200435</v>
       </c>
       <c r="V13" t="n">
-        <v>121.8320355299038</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>17.53779970793594</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634796</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444108</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740345</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1777,13 +1777,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,22 +1810,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272916</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>140.1760114441807</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.683041620682</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2005,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>24.83266606353088</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2014,7 +2014,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016465</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>193.9507379795579</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634797</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2175,7 +2175,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2236,22 +2236,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503959</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>37.41782514684039</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634796</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="D25" t="n">
-        <v>42.54416032354763</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2621,7 +2621,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560518</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2716,16 +2716,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>74.99129529219088</v>
+        <v>102.1557845699808</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699814</v>
       </c>
       <c r="E31" t="n">
-        <v>41.55695577161148</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695436</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,22 +3190,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>1.799772605715943</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>23.1099832571722</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3424,22 +3424,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>3.006892987834623</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>82.47290449300768</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3667,19 +3667,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833754</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3721,13 +3721,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>218.2271298596245</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3898,7 +3898,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3907,13 +3907,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3952,13 +3952,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>141.3831318263019</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -4135,25 +4135,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>9.146142788179411</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>788.4778634388466</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="C2" t="n">
-        <v>522.1002068716687</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="D2" t="n">
-        <v>522.1002068716687</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="E2" t="n">
-        <v>300.4385797407429</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="F2" t="n">
         <v>34.06092317356495</v>
@@ -4328,22 +4328,22 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917602</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052543</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515907</v>
+        <v>294.5174947515905</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030606</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991318</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358416</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4355,25 +4355,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="U2" t="n">
-        <v>1054.855520006025</v>
+        <v>646.8597007358178</v>
       </c>
       <c r="V2" t="n">
-        <v>1054.855520006025</v>
+        <v>380.4820441686398</v>
       </c>
       <c r="W2" t="n">
-        <v>1054.855520006025</v>
+        <v>380.4820441686398</v>
       </c>
       <c r="X2" t="n">
-        <v>1054.855520006025</v>
+        <v>380.4820441686398</v>
       </c>
       <c r="Y2" t="n">
-        <v>788.4778634388466</v>
+        <v>307.3840804899464</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>202.8592554384327</v>
+        <v>197.1648447922847</v>
       </c>
       <c r="C3" t="n">
-        <v>202.8592554384327</v>
+        <v>180.334565405576</v>
       </c>
       <c r="D3" t="n">
-        <v>202.8592554384327</v>
+        <v>180.334565405576</v>
       </c>
       <c r="E3" t="n">
-        <v>202.8592554384327</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F3" t="n">
-        <v>202.8592554384327</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I3" t="n">
         <v>21.09711040012049</v>
@@ -4425,7 +4425,7 @@
         <v>813.1187583557299</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789493</v>
+        <v>930.1763583891335</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
@@ -4443,16 +4443,16 @@
         <v>808.3837902496282</v>
       </c>
       <c r="V3" t="n">
-        <v>808.3837902496282</v>
+        <v>573.2316820178855</v>
       </c>
       <c r="W3" t="n">
-        <v>554.1464335214266</v>
+        <v>573.2316820178855</v>
       </c>
       <c r="X3" t="n">
-        <v>371.0745924585007</v>
+        <v>365.3801818123527</v>
       </c>
       <c r="Y3" t="n">
-        <v>371.0745924585007</v>
+        <v>365.3801818123527</v>
       </c>
     </row>
     <row r="4">
@@ -4462,40 +4462,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>353.7012779513406</v>
+        <v>484.4695121254205</v>
       </c>
       <c r="C4" t="n">
-        <v>328.2753322811682</v>
+        <v>484.4695121254205</v>
       </c>
       <c r="D4" t="n">
-        <v>328.2753322811682</v>
+        <v>484.4695121254205</v>
       </c>
       <c r="E4" t="n">
-        <v>328.2753322811682</v>
+        <v>336.5564185430274</v>
       </c>
       <c r="F4" t="n">
-        <v>328.2753322811682</v>
+        <v>189.666471045117</v>
       </c>
       <c r="G4" t="n">
-        <v>159.7059716361716</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H4" t="n">
-        <v>159.7059716361716</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434483</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J4" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287946</v>
+        <v>126.4133765287949</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551008</v>
+        <v>316.708372655101</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375336</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N4" t="n">
         <v>739.1822330227046</v>
@@ -4513,25 +4513,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>848.0684854165359</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T4" t="n">
-        <v>848.0684854165359</v>
+        <v>829.3864837640389</v>
       </c>
       <c r="U4" t="n">
-        <v>848.0684854165359</v>
+        <v>563.0088271968609</v>
       </c>
       <c r="V4" t="n">
-        <v>848.0684854165359</v>
+        <v>563.0088271968609</v>
       </c>
       <c r="W4" t="n">
-        <v>581.6908288493579</v>
+        <v>484.4695121254205</v>
       </c>
       <c r="X4" t="n">
-        <v>353.7012779513406</v>
+        <v>484.4695121254205</v>
       </c>
       <c r="Y4" t="n">
-        <v>353.7012779513406</v>
+        <v>484.4695121254205</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>615.8334720244075</v>
+        <v>1136.345205654772</v>
       </c>
       <c r="C5" t="n">
-        <v>615.8334720244075</v>
+        <v>816.5910675842886</v>
       </c>
       <c r="D5" t="n">
-        <v>257.567773417657</v>
+        <v>816.5910675842886</v>
       </c>
       <c r="E5" t="n">
-        <v>257.567773417657</v>
+        <v>430.8028149860443</v>
       </c>
       <c r="F5" t="n">
-        <v>143.5427375852413</v>
+        <v>43.23945355631527</v>
       </c>
       <c r="G5" t="n">
-        <v>130.9983022541606</v>
+        <v>30.69501822523453</v>
       </c>
       <c r="H5" t="n">
-        <v>130.9983022541606</v>
+        <v>30.69501822523453</v>
       </c>
       <c r="I5" t="n">
-        <v>30.69501822523463</v>
+        <v>30.69501822523453</v>
       </c>
       <c r="J5" t="n">
-        <v>93.76641159275204</v>
+        <v>93.76641159275152</v>
       </c>
       <c r="K5" t="n">
-        <v>239.0325989245575</v>
+        <v>239.0325989245566</v>
       </c>
       <c r="L5" t="n">
-        <v>456.1499114825656</v>
+        <v>456.1499114825642</v>
       </c>
       <c r="M5" t="n">
-        <v>729.4041931748891</v>
+        <v>729.4041931748873</v>
       </c>
       <c r="N5" t="n">
-        <v>1011.693823202384</v>
+        <v>1011.693823202381</v>
       </c>
       <c r="O5" t="n">
-        <v>1264.916654798418</v>
+        <v>1264.916654798415</v>
       </c>
       <c r="P5" t="n">
-        <v>1446.535482189416</v>
+        <v>1446.535482189412</v>
       </c>
       <c r="Q5" t="n">
-        <v>1534.750911261731</v>
+        <v>1534.750911261727</v>
       </c>
       <c r="R5" t="n">
-        <v>1534.750911261731</v>
+        <v>1534.750911261727</v>
       </c>
       <c r="S5" t="n">
-        <v>1389.996673518259</v>
+        <v>1389.996673518255</v>
       </c>
       <c r="T5" t="n">
-        <v>1389.996673518259</v>
+        <v>1389.996673518255</v>
       </c>
       <c r="U5" t="n">
-        <v>1389.996673518259</v>
+        <v>1136.345205654772</v>
       </c>
       <c r="V5" t="n">
-        <v>1389.996673518259</v>
+        <v>1136.345205654772</v>
       </c>
       <c r="W5" t="n">
-        <v>1389.996673518259</v>
+        <v>1136.345205654772</v>
       </c>
       <c r="X5" t="n">
-        <v>1389.996673518259</v>
+        <v>1136.345205654772</v>
       </c>
       <c r="Y5" t="n">
-        <v>1002.433312088529</v>
+        <v>1136.345205654772</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>382.42963553756</v>
+        <v>264.6115818588818</v>
       </c>
       <c r="C6" t="n">
-        <v>373.1068946073578</v>
+        <v>264.6115818588818</v>
       </c>
       <c r="D6" t="n">
-        <v>373.1068946073578</v>
+        <v>264.6115818588818</v>
       </c>
       <c r="E6" t="n">
-        <v>213.8694396019024</v>
+        <v>167.8673179625479</v>
       </c>
       <c r="F6" t="n">
-        <v>67.33488162878734</v>
+        <v>167.8673179625479</v>
       </c>
       <c r="G6" t="n">
-        <v>67.33488162878734</v>
+        <v>30.69501822523453</v>
       </c>
       <c r="H6" t="n">
-        <v>67.33488162878734</v>
+        <v>30.69501822523453</v>
       </c>
       <c r="I6" t="n">
-        <v>30.69501822523463</v>
+        <v>30.69501822523453</v>
       </c>
       <c r="J6" t="n">
-        <v>174.2721860626394</v>
+        <v>49.44206107563438</v>
       </c>
       <c r="K6" t="n">
-        <v>388.9600665101457</v>
+        <v>159.638568016945</v>
       </c>
       <c r="L6" t="n">
-        <v>583.4554103414984</v>
+        <v>354.1339118482972</v>
       </c>
       <c r="M6" t="n">
-        <v>829.7791710122451</v>
+        <v>600.4576725190434</v>
       </c>
       <c r="N6" t="n">
-        <v>1097.031033584468</v>
+        <v>889.0545187259739</v>
       </c>
       <c r="O6" t="n">
-        <v>1319.294480749988</v>
+        <v>1111.317965891493</v>
       </c>
       <c r="P6" t="n">
-        <v>1478.347425948676</v>
+        <v>1270.370911090181</v>
       </c>
       <c r="Q6" t="n">
-        <v>1534.750911261731</v>
+        <v>1534.750911261727</v>
       </c>
       <c r="R6" t="n">
-        <v>1534.750911261731</v>
+        <v>1530.346686757975</v>
       </c>
       <c r="S6" t="n">
-        <v>1390.282497655826</v>
+        <v>1385.878273152071</v>
       </c>
       <c r="T6" t="n">
-        <v>1194.37785520751</v>
+        <v>1189.973630703755</v>
       </c>
       <c r="U6" t="n">
-        <v>966.2567715281148</v>
+        <v>961.852547024359</v>
       </c>
       <c r="V6" t="n">
-        <v>966.2567715281148</v>
+        <v>726.7004387926163</v>
       </c>
       <c r="W6" t="n">
-        <v>966.2567715281148</v>
+        <v>472.4630820644147</v>
       </c>
       <c r="X6" t="n">
-        <v>758.4052713225819</v>
+        <v>264.6115818588818</v>
       </c>
       <c r="Y6" t="n">
-        <v>550.6449725576281</v>
+        <v>264.6115818588818</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>465.4336201288839</v>
+        <v>236.9104562721285</v>
       </c>
       <c r="C7" t="n">
-        <v>465.4336201288839</v>
+        <v>148.4222061055756</v>
       </c>
       <c r="D7" t="n">
-        <v>315.3169807165482</v>
+        <v>148.4222061055756</v>
       </c>
       <c r="E7" t="n">
-        <v>167.4038871341551</v>
+        <v>148.4222061055756</v>
       </c>
       <c r="F7" t="n">
-        <v>167.4038871341551</v>
+        <v>148.4222061055756</v>
       </c>
       <c r="G7" t="n">
-        <v>30.69501822523463</v>
+        <v>148.4222061055756</v>
       </c>
       <c r="H7" t="n">
-        <v>30.69501822523463</v>
+        <v>148.4222061055756</v>
       </c>
       <c r="I7" t="n">
-        <v>30.69501822523463</v>
+        <v>30.69501822523453</v>
       </c>
       <c r="J7" t="n">
-        <v>30.69501822523463</v>
+        <v>30.69501822523453</v>
       </c>
       <c r="K7" t="n">
-        <v>157.4322756223272</v>
+        <v>157.4322756223269</v>
       </c>
       <c r="L7" t="n">
-        <v>375.1387655830398</v>
+        <v>375.1387655830392</v>
       </c>
       <c r="M7" t="n">
-        <v>615.0688576388166</v>
+        <v>615.0688576388158</v>
       </c>
       <c r="N7" t="n">
-        <v>854.7285647974842</v>
+        <v>854.7285647974832</v>
       </c>
       <c r="O7" t="n">
-        <v>1060.076798891674</v>
+        <v>1060.076798891673</v>
       </c>
       <c r="P7" t="n">
-        <v>1212.267005934024</v>
+        <v>1212.267005934023</v>
       </c>
       <c r="Q7" t="n">
-        <v>1234.200536495187</v>
+        <v>1234.200536495185</v>
       </c>
       <c r="R7" t="n">
-        <v>1234.200536495187</v>
+        <v>1113.866490402742</v>
       </c>
       <c r="S7" t="n">
-        <v>1234.200536495187</v>
+        <v>910.3578444371313</v>
       </c>
       <c r="T7" t="n">
-        <v>1009.535278371731</v>
+        <v>685.692586313676</v>
       </c>
       <c r="U7" t="n">
-        <v>1009.535278371731</v>
+        <v>685.692586313676</v>
       </c>
       <c r="V7" t="n">
-        <v>754.8507901658445</v>
+        <v>685.692586313676</v>
       </c>
       <c r="W7" t="n">
-        <v>465.4336201288839</v>
+        <v>685.692586313676</v>
       </c>
       <c r="X7" t="n">
-        <v>465.4336201288839</v>
+        <v>457.7030354156586</v>
       </c>
       <c r="Y7" t="n">
-        <v>465.4336201288839</v>
+        <v>236.9104562721285</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1454.537269016651</v>
+        <v>970.5047989601117</v>
       </c>
       <c r="C8" t="n">
-        <v>1454.537269016651</v>
+        <v>601.5422820197</v>
       </c>
       <c r="D8" t="n">
-        <v>1096.2715704099</v>
+        <v>243.2765834129495</v>
       </c>
       <c r="E8" t="n">
-        <v>710.483317811656</v>
+        <v>243.2765834129495</v>
       </c>
       <c r="F8" t="n">
-        <v>533.3251860078258</v>
+        <v>236.331082663746</v>
       </c>
       <c r="G8" t="n">
         <v>117.6204357321147</v>
@@ -4808,10 +4808,10 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4832,22 +4832,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2100.012626270159</v>
       </c>
       <c r="V8" t="n">
-        <v>2231.276441056584</v>
+        <v>2100.012626270159</v>
       </c>
       <c r="W8" t="n">
-        <v>2231.276441056584</v>
+        <v>1747.243971000045</v>
       </c>
       <c r="X8" t="n">
-        <v>2231.276441056584</v>
+        <v>1747.243971000045</v>
       </c>
       <c r="Y8" t="n">
-        <v>1841.137109080772</v>
+        <v>1357.104639024233</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F9" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182524</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H9" t="n">
         <v>71.67401812057899</v>
@@ -4884,22 +4884,22 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380223</v>
+        <v>684.9695361605189</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694941</v>
+        <v>979.6730931919907</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828714</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.793729425659</v>
+        <v>1730.220240748156</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4914,16 +4914,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>415.499131720257</v>
+        <v>498.0154176992257</v>
       </c>
       <c r="C10" t="n">
-        <v>415.499131720257</v>
+        <v>498.0154176992257</v>
       </c>
       <c r="D10" t="n">
-        <v>415.499131720257</v>
+        <v>347.89877828689</v>
       </c>
       <c r="E10" t="n">
-        <v>415.499131720257</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="F10" t="n">
-        <v>305.8408313751036</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386097</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
         <v>51.2467865680031</v>
@@ -4984,28 +4984,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.233965749941</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T10" t="n">
-        <v>1114.255484944676</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U10" t="n">
-        <v>825.137147448514</v>
+        <v>927.7205539329318</v>
       </c>
       <c r="V10" t="n">
-        <v>825.137147448514</v>
+        <v>679.6638825294655</v>
       </c>
       <c r="W10" t="n">
-        <v>825.137147448514</v>
+        <v>679.6638825294655</v>
       </c>
       <c r="X10" t="n">
-        <v>597.1475965504967</v>
+        <v>679.6638825294655</v>
       </c>
       <c r="Y10" t="n">
-        <v>597.1475965504967</v>
+        <v>679.6638825294655</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1689.468935552211</v>
+        <v>1485.490329133579</v>
       </c>
       <c r="C11" t="n">
-        <v>1320.506418611799</v>
+        <v>1116.527812193167</v>
       </c>
       <c r="D11" t="n">
-        <v>1320.506418611799</v>
+        <v>1116.527812193167</v>
       </c>
       <c r="E11" t="n">
-        <v>934.7181660135548</v>
+        <v>805.8206670501952</v>
       </c>
       <c r="F11" t="n">
-        <v>523.7322612239473</v>
+        <v>394.8347622605876</v>
       </c>
       <c r="G11" t="n">
-        <v>394.8347622605877</v>
+        <v>394.8347622605876</v>
       </c>
       <c r="H11" t="n">
         <v>101.9281932309162</v>
       </c>
       <c r="I11" t="n">
-        <v>77.53766591592078</v>
+        <v>77.53766591592087</v>
       </c>
       <c r="J11" t="n">
-        <v>304.4060796706895</v>
+        <v>304.4060796706897</v>
       </c>
       <c r="K11" t="n">
-        <v>695.1615405656962</v>
+        <v>695.1615405656971</v>
       </c>
       <c r="L11" t="n">
-        <v>1216.83000462533</v>
+        <v>1216.830004625332</v>
       </c>
       <c r="M11" t="n">
-        <v>1828.956123087832</v>
+        <v>1828.956123087835</v>
       </c>
       <c r="N11" t="n">
-        <v>2455.600890484044</v>
+        <v>2455.600890484047</v>
       </c>
       <c r="O11" t="n">
-        <v>3033.988513535298</v>
+        <v>3033.988513535302</v>
       </c>
       <c r="P11" t="n">
-        <v>3493.127967479997</v>
+        <v>3493.127967480001</v>
       </c>
       <c r="Q11" t="n">
-        <v>3789.749829464063</v>
+        <v>3789.749829464067</v>
       </c>
       <c r="R11" t="n">
-        <v>3876.883295796039</v>
+        <v>3876.883295796043</v>
       </c>
       <c r="S11" t="n">
-        <v>3776.999350345381</v>
+        <v>3776.999350345385</v>
       </c>
       <c r="T11" t="n">
-        <v>3776.999350345381</v>
+        <v>3573.020743926749</v>
       </c>
       <c r="U11" t="n">
-        <v>3523.505408466909</v>
+        <v>3319.526802048277</v>
       </c>
       <c r="V11" t="n">
-        <v>3192.442521123338</v>
+        <v>2988.463914704706</v>
       </c>
       <c r="W11" t="n">
-        <v>2839.673865853224</v>
+        <v>2635.695259434592</v>
       </c>
       <c r="X11" t="n">
-        <v>2466.208107592144</v>
+        <v>2262.229501173512</v>
       </c>
       <c r="Y11" t="n">
-        <v>2076.068775616332</v>
+        <v>1872.090169197701</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>176.2740910406009</v>
       </c>
       <c r="H12" t="n">
-        <v>88.13208718390851</v>
+        <v>88.13208718390852</v>
       </c>
       <c r="I12" t="n">
-        <v>77.53766591592078</v>
+        <v>77.53766591592087</v>
       </c>
       <c r="J12" t="n">
-        <v>193.8410919870415</v>
+        <v>193.8410919870417</v>
       </c>
       <c r="K12" t="n">
-        <v>470.776996404666</v>
+        <v>470.7769964046665</v>
       </c>
       <c r="L12" t="n">
-        <v>889.4740370626179</v>
+        <v>889.4740370626189</v>
       </c>
       <c r="M12" t="n">
-        <v>1397.430603019146</v>
+        <v>1397.430603019148</v>
       </c>
       <c r="N12" t="n">
-        <v>1933.239912720357</v>
+        <v>1532.266717861143</v>
       </c>
       <c r="O12" t="n">
-        <v>2371.16628502803</v>
+        <v>2000.207762193666</v>
       </c>
       <c r="P12" t="n">
-        <v>2371.16628502803</v>
+        <v>2356.438638438441</v>
       </c>
       <c r="Q12" t="n">
-        <v>2559.377995458575</v>
+        <v>2544.650348868987</v>
       </c>
       <c r="R12" t="n">
         <v>2559.377995458575</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1094.452541682644</v>
+        <v>394.386942426221</v>
       </c>
       <c r="C13" t="n">
-        <v>925.516358754737</v>
+        <v>225.450759498314</v>
       </c>
       <c r="D13" t="n">
-        <v>775.3997193424013</v>
+        <v>225.450759498314</v>
       </c>
       <c r="E13" t="n">
-        <v>627.4866257600082</v>
+        <v>77.53766591592087</v>
       </c>
       <c r="F13" t="n">
-        <v>480.5966782620978</v>
+        <v>77.53766591592087</v>
       </c>
       <c r="G13" t="n">
-        <v>313.0986950732861</v>
+        <v>77.53766591592087</v>
       </c>
       <c r="H13" t="n">
-        <v>168.7028415717528</v>
+        <v>77.53766591592087</v>
       </c>
       <c r="I13" t="n">
-        <v>77.53766591592078</v>
+        <v>77.53766591592087</v>
       </c>
       <c r="J13" t="n">
-        <v>136.855221875865</v>
+        <v>136.8552218758652</v>
       </c>
       <c r="K13" t="n">
         <v>364.1690246648147</v>
       </c>
       <c r="L13" t="n">
-        <v>710.5788654344815</v>
+        <v>710.5788654344817</v>
       </c>
       <c r="M13" t="n">
-        <v>1086.20859537694</v>
+        <v>1086.208595376941</v>
       </c>
       <c r="N13" t="n">
-        <v>1458.341306336948</v>
+        <v>1458.341306336949</v>
       </c>
       <c r="O13" t="n">
         <v>1786.049800818666</v>
       </c>
       <c r="P13" t="n">
-        <v>2042.940349010724</v>
+        <v>2042.940349010725</v>
       </c>
       <c r="Q13" t="n">
-        <v>2137.362968742809</v>
+        <v>2137.36296874281</v>
       </c>
       <c r="R13" t="n">
-        <v>2137.362968742809</v>
+        <v>2056.743466925586</v>
       </c>
       <c r="S13" t="n">
-        <v>2137.362968742809</v>
+        <v>1868.627619458882</v>
       </c>
       <c r="T13" t="n">
-        <v>2137.362968742809</v>
+        <v>1647.736286893323</v>
       </c>
       <c r="U13" t="n">
-        <v>2137.362968742809</v>
+        <v>1358.644593842773</v>
       </c>
       <c r="V13" t="n">
-        <v>2014.300306591392</v>
+        <v>1103.960105636887</v>
       </c>
       <c r="W13" t="n">
-        <v>1724.883136554431</v>
+        <v>814.5429355999258</v>
       </c>
       <c r="X13" t="n">
-        <v>1496.893585656414</v>
+        <v>796.8279863999908</v>
       </c>
       <c r="Y13" t="n">
-        <v>1276.101006512883</v>
+        <v>576.0354072564606</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551872</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.81350961146</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.54781100471</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406466</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168582</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362655</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398591</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492575</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474781</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.81249946657</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615994</v>
       </c>
     </row>
     <row r="15">
@@ -5343,40 +5343,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G15" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273896</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273896</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239595</v>
       </c>
       <c r="L15" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239595</v>
       </c>
       <c r="M15" t="n">
-        <v>1025.119922845744</v>
+        <v>1026.887310050511</v>
       </c>
       <c r="N15" t="n">
-        <v>1652.717886400351</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,34 +5410,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>950.7540666811332</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C16" t="n">
-        <v>781.8178837532263</v>
+        <v>390.8232499582179</v>
       </c>
       <c r="D16" t="n">
-        <v>631.7012443408905</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L16" t="n">
         <v>826.1405381797742</v>
@@ -5452,34 +5452,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510505</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.461080510505</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1722.776592304618</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1581.18466155292</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1353.195110654903</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y16" t="n">
-        <v>1132.402531511373</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5489,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,13 +5501,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
@@ -5516,16 +5516,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5540,25 +5540,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5586,28 +5586,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J18" t="n">
-        <v>228.9331431646415</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>562.8579153358621</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1058.183521551621</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1655.562009178173</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N18" t="n">
-        <v>2283.159972732779</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
         <v>2283.159972732779</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.899304487669</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="C19" t="n">
-        <v>580.899304487669</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5692,31 +5692,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611856</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614389</v>
+        <v>916.2946447138386</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179088</v>
+        <v>720.3848083708508</v>
       </c>
     </row>
     <row r="20">
@@ -5738,52 +5738,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123002</v>
@@ -5795,7 +5795,7 @@
         <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349511</v>
+        <v>738.7889117913851</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N21" t="n">
-        <v>1767.889897446606</v>
+        <v>1963.765362972543</v>
       </c>
       <c r="O21" t="n">
-        <v>2319.799627685893</v>
+        <v>2515.67509321183</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2515.67509321183</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>724.7519863413023</v>
+        <v>513.8536007400704</v>
       </c>
       <c r="C22" t="n">
-        <v>555.8158034133954</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5914,7 +5914,7 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2409.167300603654</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2226.312466258558</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2006.711001281499</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1717.635774625697</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1462.95128641981</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W22" t="n">
-        <v>1173.53411638285</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X22" t="n">
-        <v>945.5445654848324</v>
+        <v>916.2946447138399</v>
       </c>
       <c r="Y22" t="n">
-        <v>724.7519863413023</v>
+        <v>695.5020655703102</v>
       </c>
     </row>
     <row r="23">
@@ -5978,19 +5978,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,10 +5999,10 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6014,25 +6014,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L24" t="n">
-        <v>352.5519571452614</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718133</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>762.5477693179085</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>593.6115863900018</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="D25" t="n">
-        <v>550.637687073287</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6151,7 +6151,7 @@
         <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6163,34 +6163,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258105</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6218,55 +6218,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>800.5007694647273</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C28" t="n">
-        <v>631.5645865368206</v>
+        <v>344.9174178121638</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782951</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038339</v>
+        <v>435.7419440038337</v>
       </c>
       <c r="L28" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797738</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N28" t="n">
         <v>1665.560112570817</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T28" t="n">
-        <v>2264.108249235164</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U28" t="n">
-        <v>1975.033022579362</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V28" t="n">
-        <v>1720.348534373475</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1430.931364336514</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1202.941813438497</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y28" t="n">
-        <v>982.1492342949671</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="29">
@@ -6452,19 +6452,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6540,25 +6540,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>763.7541388327642</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>594.8179559048573</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>444.7013164925216</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>945.4026036630039</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6692,34 +6692,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797186</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>542.9134462654469</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M33" t="n">
-        <v>1140.291933891999</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N33" t="n">
-        <v>1767.889897446606</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O33" t="n">
-        <v>2319.799627685893</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876693</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C34" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D34" t="n">
-        <v>411.9631215597624</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E34" t="n">
-        <v>264.0500279773693</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F34" t="n">
-        <v>117.1600804794589</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6865,43 +6865,43 @@
         <v>826.1405381797744</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="35">
@@ -6932,22 +6932,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111725</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6974,10 +6974,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,16 +7011,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M36" t="n">
         <v>680.0291294438176</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>763.7541388327642</v>
+        <v>580.8993044876694</v>
       </c>
       <c r="C37" t="n">
-        <v>763.7541388327642</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D37" t="n">
-        <v>613.6374994204284</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E37" t="n">
-        <v>465.7244058380353</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F37" t="n">
-        <v>318.834458340125</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7096,7 +7096,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
         <v>826.1405381797742</v>
@@ -7120,25 +7120,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1938.286391947399</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1683.601903741512</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1394.184733704551</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>1166.195182806534</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y37" t="n">
-        <v>945.4026036630038</v>
+        <v>762.5477693179091</v>
       </c>
     </row>
     <row r="38">
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7251,28 +7251,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1366.386875345992</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>1918.296605585279</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400705</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121636</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>194.8007783998279</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>194.8007783998279</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>194.800778399828</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7333,10 +7333,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7351,31 +7351,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W40" t="n">
-        <v>1280.315625093766</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.315625093766</v>
+        <v>916.2946447138404</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703103</v>
       </c>
     </row>
     <row r="41">
@@ -7406,22 +7406,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7430,7 +7430,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7500,16 +7500,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>847.6442739835331</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>697.5276345711974</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888043</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7570,10 +7570,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7588,31 +7588,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1901.695539989114</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1647.011051783227</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1419.02150088521</v>
+        <v>916.294644713841</v>
       </c>
       <c r="Y43" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7634,7 +7634,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7728,25 +7728,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637306</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597619</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D46" t="n">
-        <v>411.9631215597619</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>411.9631215597619</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>411.9631215597619</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>244.7670222746419</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>103.05519111684</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602303</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8073,10 +8073,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>97.32166909127238</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>97.32166909127237</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>34.43939438636968</v>
+        <v>34.43939438636991</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>105.5468419254498</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8304,7 +8304,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>21.56058953000786</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>193.3273467878346</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8544,13 +8544,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>138.9393975111051</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>20.93778120154988</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -23264,13 +23264,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>74.33029638071929</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>282.8610829395399</v>
+        <v>410.4696069132659</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>201.9388203544491</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8230033569236</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.9518949665179</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>90.25352389927366</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,25 +23461,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.81330679905234</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>186.2346889920368</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>218.682419239904</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2007761200435</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>130.3056077939243</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>208.1718556811012</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>45.44677382459334</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922788</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,13 +23707,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>146.3469868924103</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23893,7 +23893,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>123.7828069546808</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>24.63391537253685</v>
       </c>
     </row>
     <row r="20">
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>46.45968844823383</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>28.95742156328129</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24361,25 +24361,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>43.26526345294995</v>
       </c>
       <c r="D25" t="n">
-        <v>106.0713126946647</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24604,16 +24604,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>73.62417772602147</v>
+        <v>46.45968844823152</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24841,19 +24841,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="E31" t="n">
-        <v>104.8770068749577</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>146.8157004124964</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>142.4141550350967</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25312,22 +25312,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>145.6085800303777</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>83.05123379926117</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25360,7 +25360,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25555,19 +25555,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>65.5498640939313</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25609,13 +25609,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>68.29586847696652</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25786,7 +25786,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25795,13 +25795,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25840,13 +25840,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>144.8013425629422</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>43.2652634529499</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>72.11969353038612</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>907180.927676333</v>
+        <v>907180.9276763333</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>998513.6880604548</v>
+        <v>998513.6880604546</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>998513.6880604549</v>
+        <v>998513.6880604547</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>998513.6880604548</v>
+        <v>998513.6880604547</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>998513.688060455</v>
+        <v>998513.6880604547</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>998513.6880604549</v>
+        <v>998513.6880604548</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>998513.6880604549</v>
+        <v>998513.6880604548</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>998513.6880604548</v>
+        <v>998513.6880604549</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>998513.6880604549</v>
+        <v>998513.6880604548</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>998513.6880604549</v>
+        <v>998513.6880604548</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>998513.6880604549</v>
+        <v>998513.6880604547</v>
       </c>
     </row>
   </sheetData>
@@ -26314,28 +26314,28 @@
         <v>431046.9291787486</v>
       </c>
       <c r="C2" t="n">
-        <v>431046.9291787487</v>
+        <v>431046.9291787484</v>
       </c>
       <c r="D2" t="n">
-        <v>431046.9291787487</v>
+        <v>431046.9291787488</v>
       </c>
       <c r="E2" t="n">
-        <v>384609.3532440582</v>
+        <v>384609.3532440583</v>
       </c>
       <c r="F2" t="n">
-        <v>423751.964837253</v>
+        <v>423751.9648372533</v>
       </c>
       <c r="G2" t="n">
         <v>423751.9648372532</v>
       </c>
       <c r="H2" t="n">
-        <v>423751.9648372533</v>
+        <v>423751.964837253</v>
       </c>
       <c r="I2" t="n">
         <v>423751.9648372532</v>
       </c>
       <c r="J2" t="n">
-        <v>423751.9648372532</v>
+        <v>423751.9648372531</v>
       </c>
       <c r="K2" t="n">
         <v>423751.9648372532</v>
@@ -26344,10 +26344,10 @@
         <v>423751.9648372532</v>
       </c>
       <c r="M2" t="n">
+        <v>423751.9648372533</v>
+      </c>
+      <c r="N2" t="n">
         <v>423751.9648372532</v>
-      </c>
-      <c r="N2" t="n">
-        <v>423751.9648372533</v>
       </c>
       <c r="O2" t="n">
         <v>423751.9648372531</v>
@@ -26366,43 +26366,43 @@
         <v>680087.9805911931</v>
       </c>
       <c r="C3" t="n">
-        <v>132804.219065709</v>
+        <v>132804.2190657078</v>
       </c>
       <c r="D3" t="n">
-        <v>265413.0723929359</v>
+        <v>265413.072392937</v>
       </c>
       <c r="E3" t="n">
-        <v>313577.157354578</v>
+        <v>313577.157354579</v>
       </c>
       <c r="F3" t="n">
-        <v>189308.2687704281</v>
+        <v>189308.2687704268</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.246394276677165e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911401</v>
+        <v>68999.15441911413</v>
       </c>
       <c r="K3" t="n">
-        <v>30877.42926417473</v>
+        <v>30877.42926417439</v>
       </c>
       <c r="L3" t="n">
-        <v>65018.34502049514</v>
+        <v>65018.34502049549</v>
       </c>
       <c r="M3" t="n">
-        <v>81897.40371273103</v>
+        <v>81897.40371273123</v>
       </c>
       <c r="N3" t="n">
-        <v>49839.57413202341</v>
+        <v>49839.57413202305</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.094354047381785e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26418,13 +26418,13 @@
         <v>250332.6659748621</v>
       </c>
       <c r="C4" t="n">
-        <v>214511.7974947644</v>
+        <v>214511.7974947647</v>
       </c>
       <c r="D4" t="n">
         <v>139134.5471223413</v>
       </c>
       <c r="E4" t="n">
-        <v>10451.66972713466</v>
+        <v>10451.66972713467</v>
       </c>
       <c r="F4" t="n">
         <v>10557.0882867812</v>
@@ -26433,31 +26433,31 @@
         <v>10557.08828678122</v>
       </c>
       <c r="H4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678122</v>
       </c>
       <c r="I4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678125</v>
       </c>
       <c r="J4" t="n">
-        <v>10557.08828678129</v>
+        <v>10557.0882867812</v>
       </c>
       <c r="K4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="L4" t="n">
-        <v>10557.08828678125</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="M4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678122</v>
       </c>
       <c r="N4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678123</v>
       </c>
       <c r="O4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="P4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678122</v>
       </c>
     </row>
     <row r="5">
@@ -26470,13 +26470,13 @@
         <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
-        <v>72593.65038667507</v>
+        <v>72593.650386675</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>85137.48506738573</v>
+        <v>85137.4850673858</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-562421.5205915727</v>
+        <v>-562421.5205915729</v>
       </c>
       <c r="C6" t="n">
-        <v>11137.26223160028</v>
+        <v>11137.26223160091</v>
       </c>
       <c r="D6" t="n">
-        <v>-66438.46277637323</v>
+        <v>-66438.46277637425</v>
       </c>
       <c r="E6" t="n">
-        <v>-24556.95890504016</v>
+        <v>-24778.09021901588</v>
       </c>
       <c r="F6" t="n">
-        <v>122764.0779561366</v>
+        <v>122729.3400307025</v>
       </c>
       <c r="G6" t="n">
-        <v>312072.3467265648</v>
+        <v>312037.6088011291</v>
       </c>
       <c r="H6" t="n">
-        <v>312072.3467265649</v>
+        <v>312037.608801129</v>
       </c>
       <c r="I6" t="n">
-        <v>312072.3467265649</v>
+        <v>312037.608801129</v>
       </c>
       <c r="J6" t="n">
-        <v>243073.1923074508</v>
+        <v>243038.4543820149</v>
       </c>
       <c r="K6" t="n">
-        <v>281194.9174623901</v>
+        <v>281160.1795369547</v>
       </c>
       <c r="L6" t="n">
-        <v>247054.0017060697</v>
+        <v>247019.2637806337</v>
       </c>
       <c r="M6" t="n">
-        <v>230174.9430138338</v>
+        <v>230140.205088398</v>
       </c>
       <c r="N6" t="n">
-        <v>262232.7725945415</v>
+        <v>262198.0346691061</v>
       </c>
       <c r="O6" t="n">
-        <v>312072.3467265647</v>
+        <v>312037.6088011289</v>
       </c>
       <c r="P6" t="n">
-        <v>312072.3467265649</v>
+        <v>312037.6088011291</v>
       </c>
     </row>
   </sheetData>
@@ -26738,13 +26738,13 @@
         <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>717.3319511695763</v>
+        <v>717.3319511695754</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
-        <v>1202.241237214951</v>
+        <v>1202.241237214952</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26790,13 +26790,13 @@
         <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>383.6877278154328</v>
+        <v>383.6877278154317</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>969.2208239490097</v>
+        <v>969.2208239490108</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26960,16 +26960,16 @@
         <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>103.2769374000981</v>
+        <v>103.2769374000972</v>
       </c>
       <c r="D3" t="n">
-        <v>216.732940947963</v>
+        <v>216.7329409479639</v>
       </c>
       <c r="E3" t="n">
-        <v>268.1763450974117</v>
+        <v>268.1763450974126</v>
       </c>
       <c r="F3" t="n">
-        <v>165.7342631267227</v>
+        <v>165.7342631267215</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27012,19 +27012,19 @@
         <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>119.9738478139267</v>
+        <v>119.9738478139255</v>
       </c>
       <c r="D4" t="n">
-        <v>256.8971042846059</v>
+        <v>256.8971042846071</v>
       </c>
       <c r="E4" t="n">
-        <v>328.635991848971</v>
+        <v>328.635991848972</v>
       </c>
       <c r="F4" t="n">
-        <v>203.4874641506384</v>
+        <v>203.4874641506369</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,22 +27033,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015059</v>
+        <v>263.7138800015064</v>
       </c>
       <c r="K4" t="n">
-        <v>119.9738478139269</v>
+        <v>119.9738478139255</v>
       </c>
       <c r="L4" t="n">
-        <v>256.8971042846057</v>
+        <v>256.8971042846071</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489712</v>
+        <v>328.635991848972</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506384</v>
+        <v>203.4874641506369</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27258,19 +27258,19 @@
         <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>119.9738478139267</v>
+        <v>119.9738478139255</v>
       </c>
       <c r="L4" t="n">
-        <v>256.8971042846059</v>
+        <v>256.8971042846071</v>
       </c>
       <c r="M4" t="n">
-        <v>328.635991848971</v>
+        <v>328.635991848972</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506384</v>
+        <v>203.4874641506369</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27379,16 +27379,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>101.5590117695014</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>162.4853592126453</v>
+        <v>118.2164900707556</v>
       </c>
       <c r="F2" t="n">
-        <v>143.1621657402053</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27427,16 +27427,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>64.03837846862876</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>122.5240586545474</v>
+        <v>313.8709546141471</v>
       </c>
     </row>
     <row r="3">
@@ -27458,25 +27458,25 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>156.0465223954742</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
         <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27515,13 +27515,13 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>24.53186255118078</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27537,16 +27537,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>142.0751348851572</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27555,10 +27555,10 @@
         <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27585,22 +27585,22 @@
         <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2586305026775</v>
+        <v>22.54475050117134</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>22.80911833508486</v>
+        <v>208.769076415865</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>48.71629508122862</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>293.99126026762</v>
+        <v>23.18831792627975</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>309.9416328899765</v>
+        <v>309.9416328899766</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>99.30025118863682</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,7 +27670,7 @@
         <v>210.4722490968155</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1149531848473</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>2.550210840620764</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27692,28 +27692,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>163.4789854674156</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>61.86825919803039</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.8005767399402</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>97.33388804333224</v>
+        <v>97.33388804333227</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>36.27346476951727</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>4.360182258713635</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -27752,16 +27752,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27774,28 +27774,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>79.64345343374048</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>31.35564971848567</v>
+        <v>166.6974299383169</v>
       </c>
       <c r="H7" t="n">
         <v>150.7263422083601</v>
       </c>
       <c r="I7" t="n">
-        <v>116.5499160015376</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1.905236112643365</v>
+        <v>1.905236112643479</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>119.1307056315183</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>201.4735595059546</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27831,16 +27831,16 @@
         <v>286.2484721153922</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,19 +27853,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>231.4894952559195</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>294.024162310639</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
@@ -27904,16 +27904,16 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28014,13 +28014,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>36.85933068122938</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
@@ -28029,7 +28029,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28068,13 +28068,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>6.561538634396328</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>9.848122317634988e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2.955857780762017e-12</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28497,7 +28497,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>-7.520489950029638e-12</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -28536,7 +28536,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>-3.376499080331996e-12</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -28567,7 +28567,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28725,7 +28725,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>6.714628852932947e-13</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -28770,7 +28770,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>-7.032208304403594e-13</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -28959,7 +28959,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>-1.940255363782247e-12</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>9.426059932593489e-13</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -29341,7 +29341,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>1.800799509510398e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -29454,7 +29454,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>-6.110667527536862e-13</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -29797,7 +29797,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>9.426059932593489e-13</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -30223,7 +30223,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30694,7 +30694,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.883746537365129</v>
+        <v>2.883746537365125</v>
       </c>
       <c r="H5" t="n">
-        <v>29.53316922579063</v>
+        <v>29.53316922579059</v>
       </c>
       <c r="I5" t="n">
-        <v>111.1756383817692</v>
+        <v>111.1756383817691</v>
       </c>
       <c r="J5" t="n">
-        <v>244.7543826756938</v>
+        <v>244.7543826756935</v>
       </c>
       <c r="K5" t="n">
-        <v>366.8233736023598</v>
+        <v>366.8233736023593</v>
       </c>
       <c r="L5" t="n">
-        <v>455.076831695248</v>
+        <v>455.0768316952474</v>
       </c>
       <c r="M5" t="n">
-        <v>506.360659179115</v>
+        <v>506.3606591791144</v>
       </c>
       <c r="N5" t="n">
-        <v>514.5541040284038</v>
+        <v>514.5541040284031</v>
       </c>
       <c r="O5" t="n">
-        <v>485.8788493974792</v>
+        <v>485.8788493974786</v>
       </c>
       <c r="P5" t="n">
-        <v>414.6863567562775</v>
+        <v>414.686356756277</v>
       </c>
       <c r="Q5" t="n">
-        <v>311.4121838868888</v>
+        <v>311.4121838868884</v>
       </c>
       <c r="R5" t="n">
-        <v>181.1461434277624</v>
+        <v>181.1461434277622</v>
       </c>
       <c r="S5" t="n">
-        <v>65.71337422020794</v>
+        <v>65.71337422020785</v>
       </c>
       <c r="T5" t="n">
-        <v>12.62360046731586</v>
+        <v>12.62360046731584</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2306997229892103</v>
+        <v>0.23069972298921</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.54294042327041</v>
+        <v>1.542940423270408</v>
       </c>
       <c r="H6" t="n">
-        <v>14.90155619316422</v>
+        <v>14.9015561931642</v>
       </c>
       <c r="I6" t="n">
-        <v>53.12316808189788</v>
+        <v>53.12316808189781</v>
       </c>
       <c r="J6" t="n">
-        <v>145.7740335862627</v>
+        <v>145.7740335862625</v>
       </c>
       <c r="K6" t="n">
-        <v>249.1510419453801</v>
+        <v>249.1510419453798</v>
       </c>
       <c r="L6" t="n">
-        <v>335.0143230438668</v>
+        <v>335.0143230438663</v>
       </c>
       <c r="M6" t="n">
-        <v>390.9459133874191</v>
+        <v>390.9459133874186</v>
       </c>
       <c r="N6" t="n">
-        <v>401.2930884189124</v>
+        <v>401.2930884189119</v>
       </c>
       <c r="O6" t="n">
-        <v>367.104776934868</v>
+        <v>367.1047769348675</v>
       </c>
       <c r="P6" t="n">
-        <v>294.6339480190662</v>
+        <v>294.6339480190658</v>
       </c>
       <c r="Q6" t="n">
-        <v>196.9549915739561</v>
+        <v>196.9549915739559</v>
       </c>
       <c r="R6" t="n">
-        <v>95.7976518939295</v>
+        <v>95.79765189392937</v>
       </c>
       <c r="S6" t="n">
-        <v>28.65944163399202</v>
+        <v>28.65944163399198</v>
       </c>
       <c r="T6" t="n">
-        <v>6.21913267098906</v>
+        <v>6.219132670989053</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1015092383730533</v>
+        <v>0.1015092383730532</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.293549420141859</v>
+        <v>1.293549420141857</v>
       </c>
       <c r="H7" t="n">
-        <v>11.50083029907944</v>
+        <v>11.50083029907943</v>
       </c>
       <c r="I7" t="n">
-        <v>38.90055892572064</v>
+        <v>38.90055892572059</v>
       </c>
       <c r="J7" t="n">
-        <v>91.45394400402941</v>
+        <v>91.4539440040293</v>
       </c>
       <c r="K7" t="n">
-        <v>150.2869235401178</v>
+        <v>150.2869235401176</v>
       </c>
       <c r="L7" t="n">
-        <v>192.3155201545451</v>
+        <v>192.3155201545449</v>
       </c>
       <c r="M7" t="n">
-        <v>202.7697513773279</v>
+        <v>202.7697513773276</v>
       </c>
       <c r="N7" t="n">
-        <v>197.9483399022538</v>
+        <v>197.9483399022536</v>
       </c>
       <c r="O7" t="n">
-        <v>182.8373307669603</v>
+        <v>182.83733076696</v>
       </c>
       <c r="P7" t="n">
-        <v>156.4489225960662</v>
+        <v>156.448922596066</v>
       </c>
       <c r="Q7" t="n">
-        <v>108.317124626606</v>
+        <v>108.3171246266059</v>
       </c>
       <c r="R7" t="n">
-        <v>58.1626857456512</v>
+        <v>58.16268574565112</v>
       </c>
       <c r="S7" t="n">
-        <v>22.54303853101766</v>
+        <v>22.54303853101763</v>
       </c>
       <c r="T7" t="n">
-        <v>5.526983886060668</v>
+        <v>5.526983886060661</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07055724109864693</v>
+        <v>0.07055724109864683</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.833130601869146</v>
+        <v>4.83313060186915</v>
       </c>
       <c r="H11" t="n">
-        <v>49.49729877639241</v>
+        <v>49.49729877639245</v>
       </c>
       <c r="I11" t="n">
-        <v>186.3292675285605</v>
+        <v>186.3292675285606</v>
       </c>
       <c r="J11" t="n">
-        <v>410.2059184203918</v>
+        <v>410.2059184203922</v>
       </c>
       <c r="K11" t="n">
-        <v>614.7923367975129</v>
+        <v>614.7923367975134</v>
       </c>
       <c r="L11" t="n">
-        <v>762.704257454466</v>
+        <v>762.7042574544665</v>
       </c>
       <c r="M11" t="n">
-        <v>848.6554437954563</v>
+        <v>848.655443795457</v>
       </c>
       <c r="N11" t="n">
-        <v>862.3875761180171</v>
+        <v>862.3875761180178</v>
       </c>
       <c r="O11" t="n">
-        <v>814.3281336956808</v>
+        <v>814.3281336956813</v>
       </c>
       <c r="P11" t="n">
-        <v>695.0102219620361</v>
+        <v>695.0102219620367</v>
       </c>
       <c r="Q11" t="n">
-        <v>521.9237322825971</v>
+        <v>521.9237322825975</v>
       </c>
       <c r="R11" t="n">
-        <v>303.599140169663</v>
+        <v>303.5991401696633</v>
       </c>
       <c r="S11" t="n">
-        <v>110.1349635900933</v>
+        <v>110.1349635900934</v>
       </c>
       <c r="T11" t="n">
-        <v>21.1570292096822</v>
+        <v>21.15702920968221</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3866504481495316</v>
+        <v>0.3866504481495319</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.585952849858574</v>
+        <v>2.585952849858576</v>
       </c>
       <c r="H12" t="n">
-        <v>24.97486041837097</v>
+        <v>24.97486041837099</v>
       </c>
       <c r="I12" t="n">
-        <v>89.03390294469214</v>
+        <v>89.03390294469222</v>
       </c>
       <c r="J12" t="n">
-        <v>244.3158348193138</v>
+        <v>244.315834819314</v>
       </c>
       <c r="K12" t="n">
-        <v>417.5746757598383</v>
+        <v>417.5746757598386</v>
       </c>
       <c r="L12" t="n">
-        <v>561.4806834747751</v>
+        <v>561.4806834747756</v>
       </c>
       <c r="M12" t="n">
-        <v>655.2214742821483</v>
+        <v>655.2214742821487</v>
       </c>
       <c r="N12" t="n">
-        <v>672.5632370340509</v>
+        <v>267.5398078833282</v>
       </c>
       <c r="O12" t="n">
-        <v>584.9461154622957</v>
+        <v>615.2639659924481</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>493.8035753383451</v>
       </c>
       <c r="Q12" t="n">
-        <v>330.0946129047542</v>
+        <v>330.0946129047544</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>160.5559146605176</v>
       </c>
       <c r="S12" t="n">
-        <v>48.03293999627655</v>
+        <v>48.03293999627659</v>
       </c>
       <c r="T12" t="n">
         <v>10.42320468868434</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1701284769643799</v>
+        <v>0.1701284769643801</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.167976001535157</v>
+        <v>2.167976001535159</v>
       </c>
       <c r="H13" t="n">
-        <v>19.27527754092169</v>
+        <v>19.2752775409217</v>
       </c>
       <c r="I13" t="n">
-        <v>65.19695102798457</v>
+        <v>65.19695102798462</v>
       </c>
       <c r="J13" t="n">
-        <v>153.2759033085356</v>
+        <v>153.2759033085357</v>
       </c>
       <c r="K13" t="n">
-        <v>251.8793936329028</v>
+        <v>251.879393632903</v>
       </c>
       <c r="L13" t="n">
-        <v>322.3189048100543</v>
+        <v>322.3189048100545</v>
       </c>
       <c r="M13" t="n">
-        <v>339.8400926770065</v>
+        <v>339.8400926770067</v>
       </c>
       <c r="N13" t="n">
-        <v>331.759454853103</v>
+        <v>331.7594548531033</v>
       </c>
       <c r="O13" t="n">
-        <v>306.433553380624</v>
+        <v>306.4335533806242</v>
       </c>
       <c r="P13" t="n">
-        <v>262.2068429493066</v>
+        <v>262.2068429493067</v>
       </c>
       <c r="Q13" t="n">
-        <v>181.5384268194576</v>
+        <v>181.5384268194578</v>
       </c>
       <c r="R13" t="n">
-        <v>97.48008457811714</v>
+        <v>97.48008457811721</v>
       </c>
       <c r="S13" t="n">
-        <v>37.78190904493541</v>
+        <v>37.78190904493544</v>
       </c>
       <c r="T13" t="n">
-        <v>9.263170188377488</v>
+        <v>9.263170188377496</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1182532364473724</v>
+        <v>0.1182532364473725</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32026,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,7 +32072,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
@@ -32084,28 +32084,28 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>650.5350891770663</v>
       </c>
       <c r="O15" t="n">
-        <v>624.1318526922785</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,37 +32224,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32263,10 +32263,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,40 +32309,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>263.3189197138078</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q18" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32388,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32461,37 +32461,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32500,10 +32500,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32549,37 +32549,37 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N21" t="n">
-        <v>381.285518532932</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>140.7358547888817</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32625,28 +32625,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32655,7 +32655,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32789,16 +32789,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>260.1710714068256</v>
       </c>
       <c r="L24" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -32807,10 +32807,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33023,13 +33023,13 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>533.6019216797995</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,16 +33038,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33260,28 +33260,28 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>428.7353800421384</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
@@ -33500,13 +33500,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>592.1874941409601</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33515,13 +33515,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>316.3837382263852</v>
       </c>
       <c r="Q33" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,19 +33731,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>240.4469701760392</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33971,16 +33971,16 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33989,13 +33989,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>539.5330155967683</v>
       </c>
       <c r="Q39" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34220,19 +34220,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34366,7 +34366,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817575</v>
@@ -34448,28 +34448,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>423.9151577118742</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34793,10 +34793,10 @@
         <v>171.6550983098281</v>
       </c>
       <c r="P3" t="n">
-        <v>215.5616691250133</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649638</v>
+        <v>125.9385470877688</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>63.70847814900753</v>
+        <v>63.70847814900722</v>
       </c>
       <c r="K5" t="n">
-        <v>146.7335225573792</v>
+        <v>146.7335225573788</v>
       </c>
       <c r="L5" t="n">
-        <v>219.3104167252607</v>
+        <v>219.3104167252602</v>
       </c>
       <c r="M5" t="n">
-        <v>276.0144259518423</v>
+        <v>276.0144259518416</v>
       </c>
       <c r="N5" t="n">
-        <v>285.1410404318129</v>
+        <v>285.1410404318122</v>
       </c>
       <c r="O5" t="n">
-        <v>255.7806379757925</v>
+        <v>255.7806379757918</v>
       </c>
       <c r="P5" t="n">
-        <v>183.453361001008</v>
+        <v>183.4533610010075</v>
       </c>
       <c r="Q5" t="n">
-        <v>89.1064940124393</v>
+        <v>89.1064940124389</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>145.0274422600048</v>
+        <v>18.93640691959581</v>
       </c>
       <c r="K6" t="n">
-        <v>216.8564448964709</v>
+        <v>111.3096029710208</v>
       </c>
       <c r="L6" t="n">
-        <v>196.4599432639926</v>
+        <v>196.4599432639922</v>
       </c>
       <c r="M6" t="n">
-        <v>248.8118794654008</v>
+        <v>248.8118794654002</v>
       </c>
       <c r="N6" t="n">
-        <v>269.9513763355791</v>
+        <v>291.5119658655864</v>
       </c>
       <c r="O6" t="n">
-        <v>224.5085324904235</v>
+        <v>224.5085324904231</v>
       </c>
       <c r="P6" t="n">
-        <v>160.659540604736</v>
+        <v>160.6595406047356</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.97321748793462</v>
+        <v>267.0505052237835</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>128.0174317142349</v>
+        <v>128.0174317142347</v>
       </c>
       <c r="L7" t="n">
-        <v>219.9055454148613</v>
+        <v>219.905545414861</v>
       </c>
       <c r="M7" t="n">
-        <v>242.3536283391685</v>
+        <v>242.3536283391682</v>
       </c>
       <c r="N7" t="n">
-        <v>242.0805122814824</v>
+        <v>242.0805122814822</v>
       </c>
       <c r="O7" t="n">
-        <v>207.4224586809999</v>
+        <v>207.4224586809997</v>
       </c>
       <c r="P7" t="n">
-        <v>153.7274818609597</v>
+        <v>153.7274818609595</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.15508137491163</v>
+        <v>22.1550813749115</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313194</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378502</v>
@@ -35264,13 +35264,13 @@
         <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>474.3640795072282</v>
       </c>
       <c r="P9" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>229.1600138937055</v>
+        <v>229.1600138937059</v>
       </c>
       <c r="K11" t="n">
-        <v>394.7024857525324</v>
+        <v>394.7024857525328</v>
       </c>
       <c r="L11" t="n">
-        <v>526.9378424844788</v>
+        <v>526.9378424844792</v>
       </c>
       <c r="M11" t="n">
-        <v>618.3092105681836</v>
+        <v>618.3092105681843</v>
       </c>
       <c r="N11" t="n">
-        <v>632.9745125214263</v>
+        <v>632.974512521427</v>
       </c>
       <c r="O11" t="n">
-        <v>584.229922273994</v>
+        <v>584.2299222739946</v>
       </c>
       <c r="P11" t="n">
-        <v>463.7772262067666</v>
+        <v>463.7772262067671</v>
       </c>
       <c r="Q11" t="n">
-        <v>299.6180424081476</v>
+        <v>299.618042408148</v>
       </c>
       <c r="R11" t="n">
-        <v>88.01360235553091</v>
+        <v>88.01360235553113</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>117.4782081526471</v>
+        <v>117.4782081526473</v>
       </c>
       <c r="K12" t="n">
-        <v>279.7332367854793</v>
+        <v>279.7332367854796</v>
       </c>
       <c r="L12" t="n">
-        <v>422.9263036949009</v>
+        <v>422.9263036949014</v>
       </c>
       <c r="M12" t="n">
-        <v>513.0874403601299</v>
+        <v>513.0874403601304</v>
       </c>
       <c r="N12" t="n">
-        <v>541.2215249507176</v>
+        <v>136.1980957999949</v>
       </c>
       <c r="O12" t="n">
-        <v>442.3498710178512</v>
+        <v>472.6677215480037</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>359.8291679240149</v>
       </c>
       <c r="Q12" t="n">
-        <v>190.1128388187327</v>
+        <v>190.1128388187329</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>14.87641069655365</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.91672319186284</v>
+        <v>59.91672319186296</v>
       </c>
       <c r="K13" t="n">
-        <v>229.6099018070199</v>
+        <v>229.6099018070201</v>
       </c>
       <c r="L13" t="n">
-        <v>349.9089300703704</v>
+        <v>349.9089300703706</v>
       </c>
       <c r="M13" t="n">
-        <v>379.4239696388471</v>
+        <v>379.4239696388473</v>
       </c>
       <c r="N13" t="n">
-        <v>375.8916272323316</v>
+        <v>375.8916272323319</v>
       </c>
       <c r="O13" t="n">
-        <v>331.0186812946637</v>
+        <v>331.0186812946639</v>
       </c>
       <c r="P13" t="n">
-        <v>259.4854022142001</v>
+        <v>259.4854022142002</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.37638356776323</v>
+        <v>95.37638356776337</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>519.193377093733</v>
       </c>
       <c r="O15" t="n">
-        <v>481.5356082478341</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35811,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J18" t="n">
-        <v>136.4812930471411</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36048,19 +36048,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,31 +36115,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N21" t="n">
-        <v>249.9438064495987</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0.7540807028601763</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36285,19 +36285,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36437,16 +36437,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="L24" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36455,10 +36455,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36671,13 +36671,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>395.0475418999253</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,16 +36686,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295275</v>
       </c>
       <c r="K28" t="n">
         <v>264.3325884096349</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>297.3936679588052</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>37.00975247789211</v>
@@ -37148,13 +37148,13 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>453.6331143610859</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37163,13 +37163,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>182.409330812055</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37379,19 +37379,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>101.892590396165</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37619,16 +37619,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37637,13 +37637,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>405.558608182438</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37868,19 +37868,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38096,28 +38096,28 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>285.360777932</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
